--- a/数据拟合.xlsx
+++ b/数据拟合.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="修改数据" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -360,11 +360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="128980480"/>
-        <c:axId val="128982400"/>
+        <c:axId val="111051328"/>
+        <c:axId val="111051904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128980480"/>
+        <c:axId val="111051328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.54"/>
@@ -406,13 +406,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128982400"/>
+        <c:crossAx val="111051904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0000000000000006E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128982400"/>
+        <c:axId val="111051904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.5"/>
@@ -458,7 +458,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128980480"/>
+        <c:crossAx val="111051328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1453,22 +1453,22 @@
         <v>4.53</v>
       </c>
       <c r="L5">
-        <v>4.49</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="M5">
         <v>4.32</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N8" si="0">AVERAGE(I5:M5)</f>
-        <v>4.4420000000000002</v>
+        <v>4.4220000000000006</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O8" si="1">STDEV(I5:M5)</f>
-        <v>8.1055536516637758E-2</v>
+        <v>7.8549347546621934E-2</v>
       </c>
       <c r="P5">
         <f t="shared" ref="P5:P8" si="2">O5/N5</f>
-        <v>1.8247531858765816E-2</v>
+        <v>1.7763307902899577E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -1495,7 +1495,7 @@
         <v>5.77</v>
       </c>
       <c r="J6">
-        <v>5.55</v>
+        <v>5.58</v>
       </c>
       <c r="K6">
         <v>5.49</v>
@@ -1508,15 +1508,15 @@
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>5.5980000000000008</v>
+        <v>5.6040000000000001</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>0.10545141061171233</v>
+        <v>0.10285912696499007</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>1.8837336658040785E-2</v>
+        <v>1.8354590821732703E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -1540,10 +1540,10 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>6.44</v>
+        <v>6.55</v>
       </c>
       <c r="J7">
-        <v>6.48</v>
+        <v>6.45</v>
       </c>
       <c r="K7">
         <v>6.32</v>
@@ -1552,19 +1552,19 @@
         <v>6.24</v>
       </c>
       <c r="M7">
-        <v>6.28</v>
+        <v>6.43</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>6.3520000000000012</v>
+        <v>6.3980000000000006</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>0.10353743284435837</v>
+        <v>0.12029131306956442</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>1.6299973684565233E-2</v>
+        <v>1.8801393102463961E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -1591,28 +1591,28 @@
         <v>7.69</v>
       </c>
       <c r="J8">
-        <v>7.56</v>
+        <v>7.66</v>
       </c>
       <c r="K8">
         <v>7.43</v>
       </c>
       <c r="L8">
+        <v>7.57</v>
+      </c>
+      <c r="M8">
         <v>7.37</v>
       </c>
-      <c r="M8">
-        <v>7.41</v>
-      </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>7.492</v>
+        <v>7.5439999999999996</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>0.1316054710108969</v>
+        <v>0.14028542333400162</v>
       </c>
       <c r="P8">
         <f t="shared" si="2"/>
-        <v>1.7566133343686185E-2</v>
+        <v>1.8595628755832667E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
